--- a/biology/Histoire de la zoologie et de la botanique/Georg_von_Frauenfeld/Georg_von_Frauenfeld.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georg_von_Frauenfeld/Georg_von_Frauenfeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg von Frauenfeld est un naturaliste autrichien, né en 1807 et mort en 1873.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il participe à l’expédition scientifique autrichienne autour du monde à bord de la frégate SMS Novara. Il était responsable de la partie consacrée à la zoologie et responsable des spécimens récoltés. À son retour, il participe à la parution du compte rendu de cette expédition.
 Il participe au développement du Muséum de Vienne et est l’auteur de nombreuses publications.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Über eine neue Fliegengattung: Raymondia, aus der Familie der Coriaceen, nebst Beschreibung zweier Arten derselben. Sitzungsber. Akad. Wiss. Wien 18: 320-33 (1855).
 Reise von Shanghai bis Sidney auf der k. k. Fregatte Novara, Verhandlungen des Zoologisch-Botanischen Vereins in Wien, Wien, IX, 1859, 374-82.
